--- a/TestData15.xlsx
+++ b/TestData15.xlsx
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>PRES1</t>
-  </si>
-  <si>
-    <t>wS1</t>
   </si>
   <si>
     <t>LAT2</t>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>HR</t>
+  </si>
+  <si>
+    <t>WS1</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,61 +505,61 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
